--- a/svapf50000p.xlsx
+++ b/svapf50000p.xlsx
@@ -8341,7 +8341,7 @@
   <dimension ref="A1:B1018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
